--- a/blogposts/7_20_20_HistPsychonomics/somepeeps.xlsx
+++ b/blogposts/7_20_20_HistPsychonomics/somepeeps.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox (Brooklyn College)/DraftTable/Repos/CrumpLab.github.io/blogposts/7_20_20_HistPsychonomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD582FD-DFD2-CF47-AA18-2B4A434EA597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FA72EC-1377-9348-899D-C9E65C765A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="2780" windowWidth="14520" windowHeight="9380" xr2:uid="{427F16BD-4BFD-4A48-809E-EF7CF475AD58}"/>
+    <workbookView xWindow="1800" yWindow="460" windowWidth="17560" windowHeight="17540" activeTab="1" xr2:uid="{427F16BD-4BFD-4A48-809E-EF7CF475AD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SEP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="158">
   <si>
     <t>Last</t>
   </si>
@@ -112,16 +113,418 @@
   </si>
   <si>
     <t>Shepard</t>
+  </si>
+  <si>
+    <t>Spence</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Madison Bentley</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Herbert S. Langfeld</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Edwin G. Boring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edward A. Bott </t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Warner Brown</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Harvey A. Carr</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Percy W. Cobb</t>
+  </si>
+  <si>
+    <t>Nela Park</t>
+  </si>
+  <si>
+    <t>Karl M. Dallenbach</t>
+  </si>
+  <si>
+    <t>Raymond Dodge</t>
+  </si>
+  <si>
+    <t>Yale</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Inst. Juv. Res.</t>
+  </si>
+  <si>
+    <t>Karl S. Lashley</t>
+  </si>
+  <si>
+    <t>Walter Miles</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>George Peabody</t>
+  </si>
+  <si>
+    <t>Edward S. Robinson</t>
+  </si>
+  <si>
+    <t>Carl E. Seashore</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Calvin P. Stone</t>
+  </si>
+  <si>
+    <t>Margaret F. Washburn</t>
+  </si>
+  <si>
+    <t>Knight Dunlap</t>
+  </si>
+  <si>
+    <t>Hopkins</t>
+  </si>
+  <si>
+    <t>Samuel W. Fernberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennsylvania </t>
+  </si>
+  <si>
+    <t>Harry P. Weld</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cornell</t>
+  </si>
+  <si>
+    <t>Walter S. Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clark</t>
+  </si>
+  <si>
+    <t>Harry M. Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mellon Institute </t>
+  </si>
+  <si>
+    <t>Kurt Koffka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Smith</t>
+  </si>
+  <si>
+    <t>Robert S. Woodworth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Columbia; Fel- low</t>
+  </si>
+  <si>
+    <t>Robert S. Yerkes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yale</t>
+  </si>
+  <si>
+    <t>John F. Dashiell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> North Carolina </t>
+  </si>
+  <si>
+    <t>Albert T. Poffenberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Columbia </t>
+  </si>
+  <si>
+    <t>Edward C. Tolman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> California</t>
+  </si>
+  <si>
+    <t>Leonard Carmichael</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brown </t>
+  </si>
+  <si>
+    <t>Walter B. Pillsbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michigan; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elmer Culler</t>
+  </si>
+  <si>
+    <t>Shepherd I. Franz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> California in Los Angeles; died</t>
+  </si>
+  <si>
+    <t>John F. Shepard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michigan</t>
+  </si>
+  <si>
+    <t>Harry L. Hollingworth</t>
+  </si>
+  <si>
+    <t>Clark L. Hull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yale </t>
+  </si>
+  <si>
+    <t>Ernest G. Wever</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Princeton</t>
+  </si>
+  <si>
+    <t>John G. Beebe-Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harvard </t>
+  </si>
+  <si>
+    <t>Heinrich Kliiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inst. Juv. Res. </t>
+  </si>
+  <si>
+    <t>Herbert Woodrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Illinois</t>
+  </si>
+  <si>
+    <t>Carney Landis</t>
+  </si>
+  <si>
+    <t>John A. McGeoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Missouri </t>
+  </si>
+  <si>
+    <t>Carroll C. Pratt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Harvard</t>
+  </si>
+  <si>
+    <t>John P. Nafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Washington University</t>
+  </si>
+  <si>
+    <t>Charles W. Bray</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Princeton </t>
+  </si>
+  <si>
+    <t>Clarence H. Graham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Clark Ernest R. Hilgard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stanford</t>
+  </si>
+  <si>
+    <t>Joy P. Guilford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nebraska </t>
+  </si>
+  <si>
+    <t>Lyle H. Lanier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vanderbilt</t>
+  </si>
+  <si>
+    <t>Carlyle Jacobsen</t>
+  </si>
+  <si>
+    <t>Wolfgang Kihler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Swarthmore</t>
+  </si>
+  <si>
+    <t>Max Wertheimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New School Soc. Res.</t>
+  </si>
+  <si>
+    <t>Donald G. Marquis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yale </t>
+  </si>
+  <si>
+    <t>Harold Schlosberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brow</t>
+  </si>
+  <si>
+    <t>June E. Downey</t>
+  </si>
+  <si>
+    <t>Tidbits</t>
+  </si>
+  <si>
+    <t>author of Mental Inheritance (1909)</t>
+  </si>
+  <si>
+    <t>Eugenics Society</t>
+  </si>
+  <si>
+    <t>Eugenical News</t>
+  </si>
+  <si>
+    <t>HBF</t>
+  </si>
+  <si>
+    <t>Langfeld, H. S. (1949). II. - Heredity and Experience. L’Année Psychologique, 50(1), 11–25.</t>
+  </si>
+  <si>
+    <t>Wrote this list</t>
+  </si>
+  <si>
+    <t>Tidbits2</t>
+  </si>
+  <si>
+    <t>first CPA president</t>
+  </si>
+  <si>
+    <t>Studies in Mental Hygiene of Children I. Behavior of Public School Children—A Description of Method</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>psyc review paper on traits and ability</t>
+  </si>
+  <si>
+    <t>vision scientist</t>
+  </si>
+  <si>
+    <t>did some testing about driving school performance</t>
+  </si>
+  <si>
+    <t>NRC committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallenbach, K. M. (1919). The effect of practice upon visual apprehension in the feeble-minded. Journal of Educational Psychology, 10(2), 61–82. doi:10.1037/h0072295 </t>
+  </si>
+  <si>
+    <t>IQ testing in war</t>
+  </si>
+  <si>
+    <t>applauded the National Origins Act of 1924</t>
+  </si>
+  <si>
+    <t>APA Pres</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Became ill after attendin III international congress of Eugenics in New York</t>
+  </si>
+  <si>
+    <t>See Weidman, N. M. (1999, January). Constructing Scientific Psychology: Karl Lashley’s Mind-Brain Debates</t>
+  </si>
+  <si>
+    <t>https://crumplab.github.io/blogposts/7_13_20_PsychEugenics/7_13_20_PsychEugenics.html#1932_walter_richard_miles</t>
+  </si>
+  <si>
+    <t>Joseph Peterson</t>
+  </si>
+  <si>
+    <t>Peterson, J., &amp; Lanier, L. H. (1929). Studies in the comparative abilities of whites and negroes. Mental Measurement Monographs.</t>
+  </si>
+  <si>
+    <t>Did some IQ testing</t>
+  </si>
+  <si>
+    <t>Worked with Yerkes and Lashley</t>
+  </si>
+  <si>
+    <t>Wrote positive reviews on eugenics books</t>
+  </si>
+  <si>
+    <t>Did some racist work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,13 +547,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAED41C-E5B7-8940-BC18-B712ECA65B88}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,13 +919,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -526,13 +933,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -562,13 +969,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -576,16 +983,630 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F45BAA-1D5A-1C41-A5C5-7403FE67416F}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1929</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1930</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1931</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1932</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1933</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1934</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1935</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1936</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1937</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1" location="1932_walter_richard_miles" xr:uid="{F079E21F-9C82-314C-868D-112264C61099}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/blogposts/7_20_20_HistPsychonomics/somepeeps.xlsx
+++ b/blogposts/7_20_20_HistPsychonomics/somepeeps.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox (Brooklyn College)/DraftTable/Repos/CrumpLab.github.io/blogposts/7_20_20_HistPsychonomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FA72EC-1377-9348-899D-C9E65C765A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89662B21-652F-7140-87AC-E057F1845EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="460" windowWidth="17560" windowHeight="17540" activeTab="1" xr2:uid="{427F16BD-4BFD-4A48-809E-EF7CF475AD58}"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="11800" windowHeight="17540" activeTab="3" xr2:uid="{427F16BD-4BFD-4A48-809E-EF7CF475AD58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SEP" sheetId="2" r:id="rId2"/>
+    <sheet name="HBI" sheetId="3" r:id="rId3"/>
+    <sheet name="American eugenics" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="445">
   <si>
     <t>Last</t>
   </si>
@@ -500,14 +502,883 @@
   </si>
   <si>
     <t>Did some racist work</t>
+  </si>
+  <si>
+    <t>wrote about eating peyote</t>
+  </si>
+  <si>
+    <t>HBI</t>
+  </si>
+  <si>
+    <t>Louis R. Andrews</t>
+  </si>
+  <si>
+    <t>Rosalind Arden</t>
+  </si>
+  <si>
+    <t>George Armelagos</t>
+  </si>
+  <si>
+    <t>Michael Bailey</t>
+  </si>
+  <si>
+    <t>Doug Bandow</t>
+  </si>
+  <si>
+    <t>Jennifer Beamish</t>
+  </si>
+  <si>
+    <t>Gary Becker</t>
+  </si>
+  <si>
+    <t>Ray Blanchard</t>
+  </si>
+  <si>
+    <t>Howard L. Bloom</t>
+  </si>
+  <si>
+    <t>George Borjas</t>
+  </si>
+  <si>
+    <t>Chris Brand</t>
+  </si>
+  <si>
+    <t>Peter Brimelow</t>
+  </si>
+  <si>
+    <t>Amby Burfoot</t>
+  </si>
+  <si>
+    <t>Chandler Burr</t>
+  </si>
+  <si>
+    <t>David M. Buss</t>
+  </si>
+  <si>
+    <t>William Calvin</t>
+  </si>
+  <si>
+    <t>Gregory M. Cochran</t>
+  </si>
+  <si>
+    <t>Daniel C. Dennett</t>
+  </si>
+  <si>
+    <t>John Derbyshire</t>
+  </si>
+  <si>
+    <t>Lee Ellis</t>
+  </si>
+  <si>
+    <t>Jon Entine</t>
+  </si>
+  <si>
+    <t>James Fallows</t>
+  </si>
+  <si>
+    <t>Tom Farrey</t>
+  </si>
+  <si>
+    <t>Peter Frost</t>
+  </si>
+  <si>
+    <t>Francis Fukuyama</t>
+  </si>
+  <si>
+    <t>David Gelernter</t>
+  </si>
+  <si>
+    <t>James Guest</t>
+  </si>
+  <si>
+    <t>William D. Hamilton</t>
+  </si>
+  <si>
+    <t>Henry Harpending</t>
+  </si>
+  <si>
+    <t>Lawrence Harrison</t>
+  </si>
+  <si>
+    <t>Natasha Hassan</t>
+  </si>
+  <si>
+    <t>Patti Hausman</t>
+  </si>
+  <si>
+    <t>James J. Heckman</t>
+  </si>
+  <si>
+    <t>Anthony Hilton</t>
+  </si>
+  <si>
+    <t>Ken Hirsch</t>
+  </si>
+  <si>
+    <t>Ralph L. Holloway</t>
+  </si>
+  <si>
+    <t>Arthur Hu</t>
+  </si>
+  <si>
+    <t>Carol Iannone</t>
+  </si>
+  <si>
+    <t>Ken Jacobs</t>
+  </si>
+  <si>
+    <t>Marek Kohn</t>
+  </si>
+  <si>
+    <t>Paul Krugman</t>
+  </si>
+  <si>
+    <t>Hugo Kugiya</t>
+  </si>
+  <si>
+    <t>Steven E. Landsburg</t>
+  </si>
+  <si>
+    <t>Kathryn Jean Lopez</t>
+  </si>
+  <si>
+    <t>Kevin MacDonald</t>
+  </si>
+  <si>
+    <t>Kate MacKay</t>
+  </si>
+  <si>
+    <t>John H. Manners</t>
+  </si>
+  <si>
+    <t>Jonathan Marks</t>
+  </si>
+  <si>
+    <t>William C. Martin</t>
+  </si>
+  <si>
+    <t>John McCarthy</t>
+  </si>
+  <si>
+    <t>Frank Miele</t>
+  </si>
+  <si>
+    <t>Ed Miller</t>
+  </si>
+  <si>
+    <t>John J. Miller</t>
+  </si>
+  <si>
+    <t>Charles Murray</t>
+  </si>
+  <si>
+    <t>Tim Noakes</t>
+  </si>
+  <si>
+    <t>Helmuth Nyborg</t>
+  </si>
+  <si>
+    <t>Walter Olson</t>
+  </si>
+  <si>
+    <t>John O’Sullivan</t>
+  </si>
+  <si>
+    <t>Steven Pinker</t>
+  </si>
+  <si>
+    <t>Ian Pitchford</t>
+  </si>
+  <si>
+    <t>Daniel D. Polsby</t>
+  </si>
+  <si>
+    <t>Virginia Postrel</t>
+  </si>
+  <si>
+    <t>John Relethford</t>
+  </si>
+  <si>
+    <t>Richard W. Rodgerson</t>
+  </si>
+  <si>
+    <t>David Rowe</t>
+  </si>
+  <si>
+    <t>J.P. Rushton</t>
+  </si>
+  <si>
+    <t>Steve Sailer</t>
+  </si>
+  <si>
+    <t>Frank Salter</t>
+  </si>
+  <si>
+    <t>Vincent Sarich</t>
+  </si>
+  <si>
+    <t>Dan Seligman</t>
+  </si>
+  <si>
+    <t>Jeremy G. Taylor</t>
+  </si>
+  <si>
+    <t>Steven D. Tripp</t>
+  </si>
+  <si>
+    <t>Ron K. Unz</t>
+  </si>
+  <si>
+    <t>Pierre Van den Berghe</t>
+  </si>
+  <si>
+    <t>Ben J. Wattenberg</t>
+  </si>
+  <si>
+    <t>Glayde Whitney</t>
+  </si>
+  <si>
+    <t>Ellsworth Huntington</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Guy Irving Burch</t>
+  </si>
+  <si>
+    <t>Population Reference Bureau</t>
+  </si>
+  <si>
+    <t>NYU</t>
+  </si>
+  <si>
+    <t>Henry P. Fairchild</t>
+  </si>
+  <si>
+    <t>Irving Fisher</t>
+  </si>
+  <si>
+    <t>Willystine Goodsell</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Clarence C. Little</t>
+  </si>
+  <si>
+    <t>American Society for the control of cancer</t>
+  </si>
+  <si>
+    <t>Frederick Osborn</t>
+  </si>
+  <si>
+    <t>Author of Dynamics od Population</t>
+  </si>
+  <si>
+    <t>Henry F. Perkins</t>
+  </si>
+  <si>
+    <t>Eugenics Survey of Vermont</t>
+  </si>
+  <si>
+    <t>Paul Popenoe</t>
+  </si>
+  <si>
+    <t>Human Betterment Foundation</t>
+  </si>
+  <si>
+    <t>Albert E. Wiggam</t>
+  </si>
+  <si>
+    <t>Author of "Fruit of the Famly Tree"</t>
+  </si>
+  <si>
+    <t>Milton C. Winternitz</t>
+  </si>
+  <si>
+    <t>George R. Andrews</t>
+  </si>
+  <si>
+    <t>Executive Secretary</t>
+  </si>
+  <si>
+    <t>Advisory Council</t>
+  </si>
+  <si>
+    <t>W. S. Anderson</t>
+  </si>
+  <si>
+    <t>Howard J. Banker</t>
+  </si>
+  <si>
+    <t>Frederick S. Bigelow</t>
+  </si>
+  <si>
+    <t>John W. Blodgett</t>
+  </si>
+  <si>
+    <t>Emory S. Bogardus</t>
+  </si>
+  <si>
+    <t>Carl C. Brigham</t>
+  </si>
+  <si>
+    <t>Philip K. Brown</t>
+  </si>
+  <si>
+    <t>Charles W. Burr</t>
+  </si>
+  <si>
+    <t>W. W. Campbell</t>
+  </si>
+  <si>
+    <t>C. C. Carstens</t>
+  </si>
+  <si>
+    <t>T. N. Carver</t>
+  </si>
+  <si>
+    <t>Wesley R. Coe</t>
+  </si>
+  <si>
+    <t>Leon J. Cole</t>
+  </si>
+  <si>
+    <t>Henry E. Crampton</t>
+  </si>
+  <si>
+    <t>C. H. Danforth</t>
+  </si>
+  <si>
+    <t>Charles B. Davenport</t>
+  </si>
+  <si>
+    <t>Katharine B. Davis</t>
+  </si>
+  <si>
+    <t>Robert L. Dickinson</t>
+  </si>
+  <si>
+    <t>Edward M. East</t>
+  </si>
+  <si>
+    <t>Haven Emerson</t>
+  </si>
+  <si>
+    <t>Arthur H. Estabrook</t>
+  </si>
+  <si>
+    <t>David Fairchild</t>
+  </si>
+  <si>
+    <t>Livingston Farrand</t>
+  </si>
+  <si>
+    <t>Harry E. Fosdick</t>
+  </si>
+  <si>
+    <t>Raymond B. Fosdick</t>
+  </si>
+  <si>
+    <t>Robert Garrett</t>
+  </si>
+  <si>
+    <t>Virginia C. Gildersleeve</t>
+  </si>
+  <si>
+    <t>Henry H. Goddard</t>
+  </si>
+  <si>
+    <t>C. M. Goethe</t>
+  </si>
+  <si>
+    <t>E. S. Gosney</t>
+  </si>
+  <si>
+    <t>William K. Gregory</t>
+  </si>
+  <si>
+    <t>Ernest R. Groves</t>
+  </si>
+  <si>
+    <t>Michael F. Guyer</t>
+  </si>
+  <si>
+    <t>Samuel J. Holmes</t>
+  </si>
+  <si>
+    <t>Ernest A. Hooton</t>
+  </si>
+  <si>
+    <t>Lucien Howe</t>
+  </si>
+  <si>
+    <t>Ales Hrdlicka</t>
+  </si>
+  <si>
+    <t>Seth K. Humphrey</t>
+  </si>
+  <si>
+    <t>A. G. Huntsman</t>
+  </si>
+  <si>
+    <t>Wortham James</t>
+  </si>
+  <si>
+    <t>Albert Johnson</t>
+  </si>
+  <si>
+    <t>Roswell H. Johnson</t>
+  </si>
+  <si>
+    <t>Cheney C. Jones</t>
+  </si>
+  <si>
+    <t>H. E. Jordan</t>
+  </si>
+  <si>
+    <t>Otto H. Kahn</t>
+  </si>
+  <si>
+    <t>Truman Lee Kelley</t>
+  </si>
+  <si>
+    <t>John Harvey Kellogg</t>
+  </si>
+  <si>
+    <t>Vernon Kellogg</t>
+  </si>
+  <si>
+    <t>Helen Dean King</t>
+  </si>
+  <si>
+    <t>Charles S. Kofoid</t>
+  </si>
+  <si>
+    <t>Daniel W. LaRue</t>
+  </si>
+  <si>
+    <t>William Lawrence</t>
+  </si>
+  <si>
+    <t>Frank R. Lillie</t>
+  </si>
+  <si>
+    <t>Francis E. Lloyd</t>
+  </si>
+  <si>
+    <t>Louis Mann</t>
+  </si>
+  <si>
+    <t>William McDougall</t>
+  </si>
+  <si>
+    <t>J. C. Merriam</t>
+  </si>
+  <si>
+    <t>Adolf Meyer</t>
+  </si>
+  <si>
+    <t>Ann Haven Morgan</t>
+  </si>
+  <si>
+    <t>Arthur E. Morgan</t>
+  </si>
+  <si>
+    <t>Robert K. Nabours</t>
+  </si>
+  <si>
+    <t>Henry F. Nachtrieb</t>
+  </si>
+  <si>
+    <t>William A. Neilson</t>
+  </si>
+  <si>
+    <t>H. H. Newman</t>
+  </si>
+  <si>
+    <t>Henry F. Osborn</t>
+  </si>
+  <si>
+    <t>George H. Parker</t>
+  </si>
+  <si>
+    <t>Stewart Paton</t>
+  </si>
+  <si>
+    <t>John C. Phillips</t>
+  </si>
+  <si>
+    <t>Gifford Pinchot</t>
+  </si>
+  <si>
+    <t>D. F. Ramos</t>
+  </si>
+  <si>
+    <t>W. S. Rankin</t>
+  </si>
+  <si>
+    <t>Stuart A. Rice</t>
+  </si>
+  <si>
+    <t>Aaron J. Rosanoff</t>
+  </si>
+  <si>
+    <t>C. C. Rumsey</t>
+  </si>
+  <si>
+    <t>C. E. Seashore</t>
+  </si>
+  <si>
+    <t>Florence Brown Sherbon</t>
+  </si>
+  <si>
+    <t>A. Franklin Shull</t>
+  </si>
+  <si>
+    <t>William F. Snow</t>
+  </si>
+  <si>
+    <t>Charles R. Stockard</t>
+  </si>
+  <si>
+    <t>Lothrop Stoddard</t>
+  </si>
+  <si>
+    <t>Francis B. Sumner</t>
+  </si>
+  <si>
+    <t>Wilbur W. Swingle</t>
+  </si>
+  <si>
+    <t>Lewis M. Terman</t>
+  </si>
+  <si>
+    <t>Robert J. Terry</t>
+  </si>
+  <si>
+    <t>Edward L. Thorndike</t>
+  </si>
+  <si>
+    <t>S. S. Visher</t>
+  </si>
+  <si>
+    <t>August Vollmer</t>
+  </si>
+  <si>
+    <t>Herbert E. Walter</t>
+  </si>
+  <si>
+    <t>Robert Dec. Ward</t>
+  </si>
+  <si>
+    <t>William M. Wheeler</t>
+  </si>
+  <si>
+    <t>Leon F. Whitney</t>
+  </si>
+  <si>
+    <t>Ray Lyman Wilbur</t>
+  </si>
+  <si>
+    <t>Walter F. Wilcox</t>
+  </si>
+  <si>
+    <t>Clark Wissler</t>
+  </si>
+  <si>
+    <t>Frederick Adams Wood</t>
+  </si>
+  <si>
+    <t>Sewall Wright</t>
+  </si>
+  <si>
+    <t>Robert M. Yerkes</t>
+  </si>
+  <si>
+    <t>Madison Grant</t>
+  </si>
+  <si>
+    <t>Harry Olson</t>
+  </si>
+  <si>
+    <t>Grace Abbott</t>
+  </si>
+  <si>
+    <t>Lewellys F. Barker</t>
+  </si>
+  <si>
+    <t>Harold Bowditch</t>
+  </si>
+  <si>
+    <t>Walter B. Cannon</t>
+  </si>
+  <si>
+    <t>W. E. Castle</t>
+  </si>
+  <si>
+    <t>Edwin G. Conklin</t>
+  </si>
+  <si>
+    <t>John M. Cooper</t>
+  </si>
+  <si>
+    <t>Royal S. Copeland</t>
+  </si>
+  <si>
+    <t>Alexander B. Cox</t>
+  </si>
+  <si>
+    <t>H. S. Cummings</t>
+  </si>
+  <si>
+    <t>Oscar Dowling</t>
+  </si>
+  <si>
+    <t>Charles W. Eliot</t>
+  </si>
+  <si>
+    <t>Walter E Fernald</t>
+  </si>
+  <si>
+    <t>Eugene L. Fisk</t>
+  </si>
+  <si>
+    <t>Homer Folks</t>
+  </si>
+  <si>
+    <t>Franklin H. Giddings</t>
+  </si>
+  <si>
+    <t>Winfield Scott Hall</t>
+  </si>
+  <si>
+    <t>Charles W. Gould</t>
+  </si>
+  <si>
+    <t>Ross G. Harrison</t>
+  </si>
+  <si>
+    <t>C. Floyd Haviland</t>
+  </si>
+  <si>
+    <t>Arthur Hunter</t>
+  </si>
+  <si>
+    <t>John N. Hurty</t>
+  </si>
+  <si>
+    <t>Walter B. James</t>
+  </si>
+  <si>
+    <t>Helen Hartley Jenkins</t>
+  </si>
+  <si>
+    <t>H. S. Jennings</t>
+  </si>
+  <si>
+    <t>David Starr Jordan</t>
+  </si>
+  <si>
+    <t>W W Keen</t>
+  </si>
+  <si>
+    <t>Charles A. Kofold</t>
+  </si>
+  <si>
+    <t>H. H. Laughlin</t>
+  </si>
+  <si>
+    <t>Frederick Lynch</t>
+  </si>
+  <si>
+    <t>C. E McClung</t>
+  </si>
+  <si>
+    <t>Maynard M Metcalf</t>
+  </si>
+  <si>
+    <t>Lemuel H Murlin</t>
+  </si>
+  <si>
+    <t>E. F Pendleton</t>
+  </si>
+  <si>
+    <t>John T Pratt</t>
+  </si>
+  <si>
+    <t>E A Ross</t>
+  </si>
+  <si>
+    <t>Victor C Vaughn</t>
+  </si>
+  <si>
+    <t>William H Welch</t>
+  </si>
+  <si>
+    <t>Robert S Woodward</t>
+  </si>
+  <si>
+    <t>New active members from eugenical news</t>
+  </si>
+  <si>
+    <t>George F. Arps</t>
+  </si>
+  <si>
+    <t>J. Carleton Bell</t>
+  </si>
+  <si>
+    <t>C.Macfie Campbell</t>
+  </si>
+  <si>
+    <t>Esther Crane</t>
+  </si>
+  <si>
+    <t>Henry H. Donaldson</t>
+  </si>
+  <si>
+    <t>Robert H. Gault</t>
+  </si>
+  <si>
+    <t>M. E. Haggerty</t>
+  </si>
+  <si>
+    <t>G. Stanley Hall</t>
+  </si>
+  <si>
+    <t>Leta S. Hillingsworth</t>
+  </si>
+  <si>
+    <t>Joseph Jastrow</t>
+  </si>
+  <si>
+    <t>F. Kuhlmann</t>
+  </si>
+  <si>
+    <t>Florence Mateer</t>
+  </si>
+  <si>
+    <t>A. T. Poffenberger</t>
+  </si>
+  <si>
+    <t>A. A. Roback</t>
+  </si>
+  <si>
+    <t>Marion R. Trabue</t>
+  </si>
+  <si>
+    <t>Howard C. Warren</t>
+  </si>
+  <si>
+    <t>John B. Watson</t>
+  </si>
+  <si>
+    <t>Lighner Witmar</t>
+  </si>
+  <si>
+    <t>Clarence S. Yoakum</t>
+  </si>
+  <si>
+    <t>Human betterment foundation</t>
+  </si>
+  <si>
+    <t>Henry M. Robinson</t>
+  </si>
+  <si>
+    <t>George Dock</t>
+  </si>
+  <si>
+    <t>Herbert M. Evans</t>
+  </si>
+  <si>
+    <t>Rudolph Coffee</t>
+  </si>
+  <si>
+    <t>Justin Miller</t>
+  </si>
+  <si>
+    <t>Charles H. Prisk</t>
+  </si>
+  <si>
+    <t>Robert Freeman</t>
+  </si>
+  <si>
+    <t>Merle N Smith</t>
+  </si>
+  <si>
+    <t>A B Ruddock</t>
+  </si>
+  <si>
+    <t>William B Munro</t>
+  </si>
+  <si>
+    <t>John Vruwink</t>
+  </si>
+  <si>
+    <t>Otis H Castle</t>
+  </si>
+  <si>
+    <t>G Crick</t>
+  </si>
+  <si>
+    <t>A. D. Shamual</t>
+  </si>
+  <si>
+    <t>Oscar Ford</t>
+  </si>
+  <si>
+    <t>Paul Mcbride Perigord</t>
+  </si>
+  <si>
+    <t>R. B von KleinSmid</t>
+  </si>
+  <si>
+    <t>Robert Millikan</t>
+  </si>
+  <si>
+    <t>Harry Chandler</t>
+  </si>
+  <si>
+    <t>Joe G. Crick</t>
+  </si>
+  <si>
+    <t>Herbert L. Hann</t>
+  </si>
+  <si>
+    <t>A. D. Shamel</t>
+  </si>
+  <si>
+    <t>Sarah H Gosney</t>
+  </si>
+  <si>
+    <t>Lois G. Castle</t>
+  </si>
+  <si>
+    <t>Gladys G Crick</t>
+  </si>
+  <si>
+    <t>B J Holmes</t>
+  </si>
+  <si>
+    <t>Chas H Prisk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -549,12 +1420,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1009,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F45BAA-1D5A-1C41-A5C5-7403FE67416F}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,6 +2178,9 @@
       <c r="C20" t="s">
         <v>63</v>
       </c>
+      <c r="H20" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -1346,6 +2221,9 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -1354,6 +2232,9 @@
       <c r="C26" t="s">
         <v>75</v>
       </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -1373,8 +2254,8 @@
       <c r="C28" t="s">
         <v>79</v>
       </c>
-      <c r="E28" t="b">
-        <v>1</v>
+      <c r="E28" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1609,4 +2490,1489 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA41AFA2-DE8A-2749-ACED-BBB12BAA9525}">
+  <dimension ref="A1:A77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6879069-8700-454D-B20E-F2061CC85B81}">
+  <dimension ref="A2:C204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>288</v>
+      </c>
+      <c r="B175" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>